--- a/data/local elections.xlsx
+++ b/data/local elections.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauradaly/Documents/PROJECTS/CA Election Data Challenge/CA Election Data Challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A7CDA-F8A8-204C-BD30-767C9F8057F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECCED4E-6E9D-4149-AAF1-E809CA81BDB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="460" windowWidth="16000" windowHeight="14960" xr2:uid="{19BC1188-250C-5F44-9815-FE363C73D072}"/>
+    <workbookView xWindow="10600" yWindow="460" windowWidth="14920" windowHeight="14960" xr2:uid="{19BC1188-250C-5F44-9815-FE363C73D072}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="139">
   <si>
     <t>county</t>
   </si>
@@ -274,6 +274,180 @@
   </si>
   <si>
     <t>http://www.sbcounty.gov/rov/elections/results/20180605/default.html</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>https://www.co.fresno.ca.us/departments/county-clerk-registrar-of-voters/election-information/election-results/2018-november-general-election-results</t>
+  </si>
+  <si>
+    <t>State Center Community College, Trustee Area 4.</t>
+  </si>
+  <si>
+    <t>State Center Community College, Trustee Area 5.</t>
+  </si>
+  <si>
+    <t>89 precincts</t>
+  </si>
+  <si>
+    <t>73 precints</t>
+  </si>
+  <si>
+    <t>Central Unified No. 1</t>
+  </si>
+  <si>
+    <t>9 precincts</t>
+  </si>
+  <si>
+    <t>Central Unified No. 2</t>
+  </si>
+  <si>
+    <t>Central Unified No. 4</t>
+  </si>
+  <si>
+    <t>16 precincts</t>
+  </si>
+  <si>
+    <t>8 precincts</t>
+  </si>
+  <si>
+    <t>Central Unified No. 7</t>
+  </si>
+  <si>
+    <t>10 precincts</t>
+  </si>
+  <si>
+    <t>Clovis Unified No. 1</t>
+  </si>
+  <si>
+    <t>all precincts</t>
+  </si>
+  <si>
+    <t>Coalinga-Huron Unified 2</t>
+  </si>
+  <si>
+    <t>Fresno Unified No. 1</t>
+  </si>
+  <si>
+    <t>29 prec</t>
+  </si>
+  <si>
+    <t>Fresno Unified No. 4</t>
+  </si>
+  <si>
+    <t>34 prec</t>
+  </si>
+  <si>
+    <t>Fresno Unified No. 3</t>
+  </si>
+  <si>
+    <t>38 prec</t>
+  </si>
+  <si>
+    <t>Fresno Unified No. 7</t>
+  </si>
+  <si>
+    <t>Sanger Unified No. 6</t>
+  </si>
+  <si>
+    <t>7 prec</t>
+  </si>
+  <si>
+    <t>Coalinga City Council Dist 1</t>
+  </si>
+  <si>
+    <t>1 prec</t>
+  </si>
+  <si>
+    <t>Coalinga City Council Dist 3</t>
+  </si>
+  <si>
+    <t>Coalinga City Council Dist 5</t>
+  </si>
+  <si>
+    <t>Firebaugh City Council</t>
+  </si>
+  <si>
+    <t>2 prec</t>
+  </si>
+  <si>
+    <t>3 prec</t>
+  </si>
+  <si>
+    <t>Fresno City Council No. 3</t>
+  </si>
+  <si>
+    <t>Fresno City Council No. 5</t>
+  </si>
+  <si>
+    <t>Fresno City Council No. 7</t>
+  </si>
+  <si>
+    <t>Sanger City Council No. 2</t>
+  </si>
+  <si>
+    <t>Sanger City Council No. 4</t>
+  </si>
+  <si>
+    <t>Selma City Council</t>
+  </si>
+  <si>
+    <t>seems to be at large/all prec</t>
+  </si>
+  <si>
+    <t>Local Measure</t>
+  </si>
+  <si>
+    <t>Measure O</t>
+  </si>
+  <si>
+    <t>Hanford Joint Union HSD Gov Brd Mbr</t>
+  </si>
+  <si>
+    <t>Hanford Area A</t>
+  </si>
+  <si>
+    <t>Hanford Area D</t>
+  </si>
+  <si>
+    <t>Hanford Area E</t>
+  </si>
+  <si>
+    <t>4 prec</t>
+  </si>
+  <si>
+    <t>16 prec</t>
+  </si>
+  <si>
+    <t>Lemoore Area A</t>
+  </si>
+  <si>
+    <t>Lemoore Area C</t>
+  </si>
+  <si>
+    <t>Yuba</t>
+  </si>
+  <si>
+    <t>https://www.yuba.org/departments/elections/2018NovResults.php</t>
+  </si>
+  <si>
+    <t>Wheatland School District</t>
+  </si>
+  <si>
+    <t>County Supervisor</t>
+  </si>
+  <si>
+    <t>District 5</t>
+  </si>
+  <si>
+    <t>Marysville</t>
+  </si>
+  <si>
+    <t>J-MJUSD Bond</t>
+  </si>
+  <si>
+    <t>K-County Sales Tax</t>
   </si>
 </sst>
 </file>
@@ -636,22 +810,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3939B3D-99DA-424A-82A5-045DDB9A0E79}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1077,33 +1251,33 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>2018</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
       </c>
       <c r="F16">
-        <v>50015</v>
+        <v>1581</v>
       </c>
       <c r="G16">
-        <v>53054</v>
+        <v>1128</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>2018</v>
@@ -1112,24 +1286,24 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
       </c>
       <c r="F17">
-        <v>34553</v>
+        <v>1691</v>
       </c>
       <c r="G17">
-        <v>30609</v>
-      </c>
-      <c r="K17" t="s">
-        <v>45</v>
+        <v>1542</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>2018</v>
@@ -1138,24 +1312,24 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F18">
-        <v>78414</v>
+        <v>725</v>
       </c>
       <c r="G18">
-        <v>76225</v>
-      </c>
-      <c r="K18" t="s">
-        <v>45</v>
+        <v>647</v>
+      </c>
+      <c r="J18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>2018</v>
@@ -1164,27 +1338,24 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F19">
-        <v>64</v>
+        <v>732</v>
       </c>
       <c r="G19">
-        <v>43</v>
+        <v>585</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>2018</v>
@@ -1193,24 +1364,24 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="F20">
-        <v>1883</v>
+        <v>783</v>
       </c>
       <c r="G20">
-        <v>1809</v>
-      </c>
-      <c r="K20" t="s">
-        <v>45</v>
+        <v>551</v>
+      </c>
+      <c r="J20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>2018</v>
@@ -1219,19 +1390,19 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="F21">
-        <v>1990</v>
+        <v>895</v>
       </c>
       <c r="G21">
-        <v>1889</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>45</v>
+        <v>329</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1242,19 +1413,19 @@
         <v>2018</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>68</v>
       </c>
       <c r="F22">
-        <v>2522</v>
+        <v>50015</v>
       </c>
       <c r="G22">
-        <v>2346</v>
+        <v>53054</v>
       </c>
       <c r="K22" t="s">
         <v>45</v>
@@ -1271,16 +1442,16 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>2138</v>
+        <v>34553</v>
       </c>
       <c r="G23">
-        <v>1203</v>
+        <v>30609</v>
       </c>
       <c r="K23" t="s">
         <v>45</v>
@@ -1300,13 +1471,13 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F24">
-        <v>2870</v>
+        <v>78414</v>
       </c>
       <c r="G24">
-        <v>1849</v>
+        <v>76225</v>
       </c>
       <c r="K24" t="s">
         <v>45</v>
@@ -1326,16 +1497,16 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F25">
-        <v>2256</v>
+        <v>64</v>
       </c>
       <c r="G25">
-        <v>1614</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K25" t="s">
         <v>45</v>
@@ -1355,16 +1526,13 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F26">
-        <v>526</v>
+        <v>1883</v>
       </c>
       <c r="G26">
-        <v>306</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
+        <v>1809</v>
       </c>
       <c r="K26" t="s">
         <v>45</v>
@@ -1384,15 +1552,15 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F27">
-        <v>505</v>
+        <v>1990</v>
       </c>
       <c r="G27">
-        <v>373</v>
-      </c>
-      <c r="K27" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1410,13 +1578,13 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>14650</v>
+        <v>2522</v>
       </c>
       <c r="G28">
-        <v>12531</v>
+        <v>2346</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -1433,16 +1601,16 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>6256</v>
+        <v>2138</v>
       </c>
       <c r="G29">
-        <v>5231</v>
+        <v>1203</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -1459,16 +1627,16 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>3789</v>
+        <v>2870</v>
       </c>
       <c r="G30">
-        <v>3315</v>
+        <v>1849</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
@@ -1485,16 +1653,19 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F31">
-        <v>12042</v>
+        <v>2256</v>
       </c>
       <c r="G31">
-        <v>10988</v>
+        <v>1614</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
       </c>
       <c r="K31" t="s">
         <v>45</v>
@@ -1511,16 +1682,19 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>9934</v>
+        <v>526</v>
       </c>
       <c r="G32">
-        <v>9377</v>
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
       </c>
       <c r="K32" t="s">
         <v>45</v>
@@ -1537,16 +1711,16 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F33">
-        <v>13433</v>
+        <v>505</v>
       </c>
       <c r="G33">
-        <v>12356</v>
+        <v>373</v>
       </c>
       <c r="K33" t="s">
         <v>45</v>
@@ -1563,19 +1737,16 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F34">
-        <v>10100</v>
+        <v>14650</v>
       </c>
       <c r="G34">
-        <v>8371</v>
-      </c>
-      <c r="J34" t="s">
-        <v>54</v>
+        <v>12531</v>
       </c>
       <c r="K34" t="s">
         <v>45</v>
@@ -1583,7 +1754,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>2018</v>
@@ -1592,24 +1763,24 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F35">
-        <v>14209</v>
+        <v>6256</v>
       </c>
       <c r="G35">
-        <v>12252</v>
+        <v>5231</v>
       </c>
       <c r="K35" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>2018</v>
@@ -1618,24 +1789,24 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F36">
-        <v>18473</v>
+        <v>3789</v>
       </c>
       <c r="G36">
-        <v>16525</v>
+        <v>3315</v>
       </c>
       <c r="K36" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>2018</v>
@@ -1644,24 +1815,24 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F37">
-        <v>10761</v>
+        <v>12042</v>
       </c>
       <c r="G37">
-        <v>10488</v>
+        <v>10988</v>
       </c>
       <c r="K37" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B38">
         <v>2018</v>
@@ -1670,24 +1841,24 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F38">
-        <v>8280</v>
+        <v>9934</v>
       </c>
       <c r="G38">
-        <v>5709</v>
+        <v>9377</v>
       </c>
       <c r="K38" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>2018</v>
@@ -1696,24 +1867,24 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F39">
-        <v>11448</v>
+        <v>13433</v>
       </c>
       <c r="G39">
-        <v>8573</v>
+        <v>12356</v>
       </c>
       <c r="K39" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>2018</v>
@@ -1722,19 +1893,22 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F40">
-        <v>1397</v>
+        <v>10100</v>
       </c>
       <c r="G40">
-        <v>1261</v>
+        <v>8371</v>
+      </c>
+      <c r="J40" t="s">
+        <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1748,16 +1922,16 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F41">
-        <v>1836</v>
+        <v>14209</v>
       </c>
       <c r="G41">
-        <v>1711</v>
+        <v>12252</v>
       </c>
       <c r="K41" t="s">
         <v>77</v>
@@ -1774,16 +1948,16 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F42">
-        <v>2943</v>
+        <v>18473</v>
       </c>
       <c r="G42">
-        <v>2900</v>
+        <v>16525</v>
       </c>
       <c r="K42" t="s">
         <v>77</v>
@@ -1803,13 +1977,13 @@
         <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F43">
-        <v>3458</v>
+        <v>10761</v>
       </c>
       <c r="G43">
-        <v>3082</v>
+        <v>10488</v>
       </c>
       <c r="K43" t="s">
         <v>77</v>
@@ -1829,13 +2003,13 @@
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F44">
-        <v>10608</v>
+        <v>8280</v>
       </c>
       <c r="G44">
-        <v>10369</v>
+        <v>5709</v>
       </c>
       <c r="K44" t="s">
         <v>77</v>
@@ -1855,13 +2029,13 @@
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F45">
-        <v>9935</v>
+        <v>11448</v>
       </c>
       <c r="G45">
-        <v>8726</v>
+        <v>8573</v>
       </c>
       <c r="K45" t="s">
         <v>77</v>
@@ -1881,13 +2055,13 @@
         <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F46">
-        <v>2390</v>
+        <v>1397</v>
       </c>
       <c r="G46">
-        <v>1476</v>
+        <v>1261</v>
       </c>
       <c r="K46" t="s">
         <v>77</v>
@@ -1907,13 +2081,13 @@
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F47">
-        <v>1686</v>
+        <v>1836</v>
       </c>
       <c r="G47">
-        <v>1505</v>
+        <v>1711</v>
       </c>
       <c r="K47" t="s">
         <v>77</v>
@@ -1933,16 +2107,13 @@
         <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F48">
-        <v>7394</v>
+        <v>2943</v>
       </c>
       <c r="G48">
-        <v>7057</v>
-      </c>
-      <c r="J48" t="s">
-        <v>73</v>
+        <v>2900</v>
       </c>
       <c r="K48" t="s">
         <v>77</v>
@@ -1959,16 +2130,16 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F49">
-        <v>1539</v>
+        <v>3458</v>
       </c>
       <c r="G49">
-        <v>1239</v>
+        <v>3082</v>
       </c>
       <c r="K49" t="s">
         <v>77</v>
@@ -1988,13 +2159,13 @@
         <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F50">
-        <v>2993</v>
+        <v>10608</v>
       </c>
       <c r="G50">
-        <v>2371</v>
+        <v>10369</v>
       </c>
       <c r="K50" t="s">
         <v>77</v>
@@ -2014,13 +2185,13 @@
         <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F51">
-        <v>1759</v>
+        <v>9935</v>
       </c>
       <c r="G51">
-        <v>1388</v>
+        <v>8726</v>
       </c>
       <c r="K51" t="s">
         <v>77</v>
@@ -2034,22 +2205,22 @@
         <v>2018</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F52">
-        <v>7832</v>
+        <v>2390</v>
       </c>
       <c r="G52">
-        <v>6130</v>
+        <v>1476</v>
       </c>
       <c r="K52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2060,22 +2231,22 @@
         <v>2018</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F53">
-        <v>899</v>
+        <v>1686</v>
       </c>
       <c r="G53">
-        <v>549</v>
+        <v>1505</v>
       </c>
       <c r="K53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2086,22 +2257,25 @@
         <v>2018</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F54">
-        <v>1713</v>
+        <v>7394</v>
       </c>
       <c r="G54">
-        <v>1415</v>
+        <v>7057</v>
+      </c>
+      <c r="J54" t="s">
+        <v>73</v>
       </c>
       <c r="K54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2112,27 +2286,1025 @@
         <v>2018</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
         <v>49</v>
       </c>
       <c r="E55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55">
+        <v>1539</v>
+      </c>
+      <c r="G55">
+        <v>1239</v>
+      </c>
+      <c r="K55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="F55">
+      <c r="B56">
+        <v>2018</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56">
+        <v>2993</v>
+      </c>
+      <c r="G56">
+        <v>2371</v>
+      </c>
+      <c r="K56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>2018</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57">
+        <v>1759</v>
+      </c>
+      <c r="G57">
+        <v>1388</v>
+      </c>
+      <c r="K57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2018</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58">
+        <v>7832</v>
+      </c>
+      <c r="G58">
+        <v>6130</v>
+      </c>
+      <c r="K58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2018</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59">
+        <v>899</v>
+      </c>
+      <c r="G59">
+        <v>549</v>
+      </c>
+      <c r="K59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>2018</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60">
+        <v>1713</v>
+      </c>
+      <c r="G60">
+        <v>1415</v>
+      </c>
+      <c r="K60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <v>2018</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61">
         <v>6747</v>
       </c>
-      <c r="G55">
+      <c r="G61">
         <v>5243</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K61" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62">
+        <v>2018</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62">
+        <v>12940</v>
+      </c>
+      <c r="G62">
+        <v>10246</v>
+      </c>
+      <c r="J62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63">
+        <v>2018</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63">
+        <v>9511</v>
+      </c>
+      <c r="G63">
+        <v>7906</v>
+      </c>
+      <c r="J63" t="s">
+        <v>86</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64">
+        <v>2018</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64">
+        <v>1169</v>
+      </c>
+      <c r="G64">
+        <v>718</v>
+      </c>
+      <c r="J64" t="s">
+        <v>88</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65">
+        <v>2018</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65">
+        <v>2113</v>
+      </c>
+      <c r="G65">
+        <v>1565</v>
+      </c>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66">
+        <v>2018</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66">
+        <v>1103</v>
+      </c>
+      <c r="G66">
+        <v>713</v>
+      </c>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>2018</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67">
+        <v>947</v>
+      </c>
+      <c r="G67">
+        <v>839</v>
+      </c>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68">
+        <v>2018</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68">
+        <v>36406</v>
+      </c>
+      <c r="G68">
+        <v>32687</v>
+      </c>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69">
+        <v>2018</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69">
+        <v>1076</v>
+      </c>
+      <c r="G69">
+        <v>881</v>
+      </c>
+      <c r="J69" t="s">
+        <v>92</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70">
+        <v>3832</v>
+      </c>
+      <c r="G70">
+        <v>2610</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71">
+        <v>2018</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71">
+        <v>5771</v>
+      </c>
+      <c r="G71">
+        <v>3760</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72">
+        <v>2018</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72">
+        <v>4017</v>
+      </c>
+      <c r="G72">
+        <v>3364</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>2018</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73">
+        <v>7323</v>
+      </c>
+      <c r="G73">
+        <v>6160</v>
+      </c>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74">
+        <v>2018</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74">
+        <v>832</v>
+      </c>
+      <c r="G74">
+        <v>525</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>2018</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75">
+        <v>361</v>
+      </c>
+      <c r="G75">
+        <v>274</v>
+      </c>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>2018</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76">
+        <v>320</v>
+      </c>
+      <c r="G76">
+        <v>271</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>2018</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F77">
+        <v>341</v>
+      </c>
+      <c r="G77">
+        <v>245</v>
+      </c>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>2018</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78">
+        <v>697</v>
+      </c>
+      <c r="G78">
+        <v>548</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>2018</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79">
+        <v>6072</v>
+      </c>
+      <c r="G79">
+        <v>4251</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>2018</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80">
+        <v>7912</v>
+      </c>
+      <c r="G80">
+        <v>4930</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>2018</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81">
+        <v>5591</v>
+      </c>
+      <c r="G81">
+        <v>3495</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2018</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82">
+        <v>422</v>
+      </c>
+      <c r="G82">
+        <v>373</v>
+      </c>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>2018</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" t="s">
+        <v>118</v>
+      </c>
+      <c r="F83">
+        <v>759</v>
+      </c>
+      <c r="G83">
+        <v>510</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>2018</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84">
+        <v>2327</v>
+      </c>
+      <c r="G84">
+        <v>1446</v>
+      </c>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <v>2018</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85">
+        <v>56337</v>
+      </c>
+      <c r="G85">
+        <v>55117</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86">
+        <v>2018</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86">
+        <v>974</v>
+      </c>
+      <c r="G86">
+        <v>775</v>
+      </c>
+      <c r="K86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87">
+        <v>2018</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87">
+        <v>1409</v>
+      </c>
+      <c r="G87">
+        <v>1349</v>
+      </c>
+      <c r="K87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88">
+        <v>2018</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88">
+        <v>2695</v>
+      </c>
+      <c r="G88">
+        <v>2117</v>
+      </c>
+      <c r="K88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89">
+        <v>2018</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89">
+        <v>1756</v>
+      </c>
+      <c r="G89">
+        <v>1207</v>
+      </c>
+      <c r="K89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90">
+        <v>2018</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90">
+        <v>7349</v>
+      </c>
+      <c r="G90">
+        <v>7103</v>
+      </c>
+      <c r="K90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91">
+        <v>2018</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" t="s">
+        <v>138</v>
+      </c>
+      <c r="F91">
+        <v>7964</v>
+      </c>
+      <c r="G91">
+        <v>7051</v>
+      </c>
+      <c r="K91" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K21" r:id="rId1" xr:uid="{AE23A2F2-A057-E843-8F9A-605C6EAD1B1B}"/>
+    <hyperlink ref="K27" r:id="rId1" xr:uid="{AE23A2F2-A057-E843-8F9A-605C6EAD1B1B}"/>
+    <hyperlink ref="K62" r:id="rId2" xr:uid="{ECD576D1-2129-A34A-9A07-8EE2952019D6}"/>
+    <hyperlink ref="K63" r:id="rId3" xr:uid="{472F830A-C84B-7944-845A-8AC33C305B54}"/>
+    <hyperlink ref="K64" r:id="rId4" xr:uid="{734D5664-A72E-004B-84E2-96D6C9F1C32F}"/>
+    <hyperlink ref="K65:K84" r:id="rId5" display="https://www.co.fresno.ca.us/departments/county-clerk-registrar-of-voters/election-information/election-results/2018-november-general-election-results" xr:uid="{B8B770B6-F8C0-F046-962B-43B72C34580E}"/>
+    <hyperlink ref="K85" r:id="rId6" xr:uid="{6DB58C02-066F-C24D-9653-F713F9D17457}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
